--- a/appGreece/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/appGreece/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/tables/entitlements/forms/entitlements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/appGreece/config/tables/entitlements/forms/entitlements/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="22080" yWindow="6580" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>clause</t>
   </si>
@@ -194,13 +194,58 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>متجاوز</t>
+  </si>
+  <si>
+    <t>لغو شده</t>
+  </si>
+  <si>
+    <t>Está anulado</t>
+  </si>
+  <si>
+    <t>اضغط هنا للتسليم</t>
+  </si>
+  <si>
+    <t>کلیک کنید برای ارائه</t>
+  </si>
+  <si>
+    <t>Haz click para entregar</t>
+  </si>
+  <si>
+    <t>تفاصيل الاستحقاق</t>
+  </si>
+  <si>
+    <t>اطلاعات استحقاق</t>
+  </si>
+  <si>
+    <t>Detalles del título</t>
+  </si>
+  <si>
+    <t>text.arabic</t>
+  </si>
+  <si>
+    <t>text.farsi</t>
+  </si>
+  <si>
+    <t>text.greek</t>
+  </si>
+  <si>
+    <t>Η παράκαμψη είναι</t>
+  </si>
+  <si>
+    <t>Κάντε κλικ για να παραδώσει</t>
+  </si>
+  <si>
+    <t>Λεπτομέρειες σχετικά με τα δικαιώματα</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +306,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -379,7 +431,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -405,6 +457,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -817,15 +871,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -833,31 +887,76 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
